--- a/위험물안전관리법.xlsx
+++ b/위험물안전관리법.xlsx
@@ -208,360 +208,271 @@
     <t>다음 각 호의 어느 하나에 해당하는 자는 1천만원 이하의 벌금에 처한다. &lt;개정 2014.12.30, 2016.1.27, 2017.3.21, 2020.6.9</t>
   </si>
   <si>
-    <t xml:space="preserve"> ①이 법에서 사용하는 용어의 정의는 다음과 같다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ②이 법에서 사용하는 용어의 정의는 제1항에서 규정하는 것을 제외하고는 「소방기본법」, 「화재예방, 소방시설 설치ㆍ유지 및 안전관리에 관한 법률」 및 「소방시설공사업법」에서 정하는 바에 따른다. &lt;개정 2014.12.30, 2017.3.21&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 국가는 위험물에 의한 사고를 예방하기 위하여 다음 각 호의 사항을 포함하는 시책을 수립ㆍ시행하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 국가는 지방자치단체가 위험물에 의한 사고의 예방ㆍ대비 및 대응을 위한 시책을 추진하는 데에 필요한 행정적ㆍ재정적 지원을 하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 지정수량 이상의 위험물을 저장소가 아닌 장소에서 저장하거나 제조소등이 아닌 장소에서 취급하여서는 아니된다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항의 규정에 불구하고 다음 각 호의 어느 하나에 해당하는 경우에는 제조소등이 아닌 장소에서 지정수량 이상의 위험물을 취급할 수 있다. 이 경우 임시로 저장 또는 취급하는 장소에서의 저장 또는 취급의 기준과 임시로 저장 또는 취급하는 장소의 위치ㆍ구조 및 설비의 기준은 시ㆍ도의 조례로 정한다. &lt;개정 2016.1.27&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제조소등에서의 위험물의 저장 또는 취급에 관하여는 다음 각 호의 중요기준 및 세부기준에 따라야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2016.1.27, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항의 규정에 따른 제조소등의 위치ㆍ구조 및 설비의 기술기준은 행정안전부령으로 정한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 둘 이상의 위험물을 같은 장소에서 저장 또는 취급하는 경우에 있어서 당해 장소에서 저장 또는 취급하는 각 위험물의 수량을 그 위험물의 지정수량으로 각각 나누어 얻은 수의 합계가 1 이상인 경우 당해 위험물은 지정수량 이상의 위험물로 본다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제조소등을 설치하고자 하는 자는 대통령령이 정하는 바에 따라 그 설치장소를 관할하는 특별시장ㆍ광역시장ㆍ특별자치시장ㆍ도지사 또는 특별자치도지사(이하 "시ㆍ도지사"라 한다)의 허가를 받아야 한다. 제조소등의 위치ㆍ구조 또는 설비 가운데 행정안전부령이 정하는 사항을 변경하고자 하는 때에도 또한 같다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2014.12.30, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제조소등의 위치ㆍ구조 또는 설비의 변경없이 당해 제조소등에서 저장하거나 취급하는 위험물의 품명ㆍ수량 또는 지정수량의 배수를 변경하고자 하는 자는 변경하고자 하는 날의 1일 전까지 행정안전부령이 정하는 바에 따라 시ㆍ도지사에게 신고하여야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2016.1.27, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항 및 제2항의 규정에 불구하고 다음 각 호의 어느 하나에 해당하는 제조소등의 경우에는 허가를 받지 아니하고 당해 제조소등을 설치하거나 그 위치ㆍ구조 또는 설비를 변경할 수 있으며, 신고를 하지 아니하고 위험물의 품명ㆍ수량 또는 지정수량의 배수를 변경할 수 있다. &lt;개정 2016.1.27&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 군사목적 또는 군부대시설을 위한 제조소등을 설치하거나 그 위치ㆍ구조 또는 설비를 변경하고자 하는 군부대의 장은 대통령령이 정하는 바에 따라 미리 제조소등의 소재지를 관할하는 시ㆍ도지사와 협의하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 군부대의 장이 제1항의 규정에 따라 제조소등의 소재지를 관할하는 시ㆍ도지사와 협의한 경우에는 제6조제1항의 규정에 따른 허가를 받은 것으로 본다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 군부대의 장은 제1항의 규정에 따라 협의한 제조소등에 대하여는 제8조 및 제9조의 규정에 불구하고 탱크안전성능검사와 완공검사를 자체적으로 실시할 수 있다. 이 경우 완공검사를 자체적으로 실시한 군부대의 장은 지체없이 행정안전부령이 정하는 사항을 시ㆍ도지사에게 통보하여야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 위험물을 저장 또는 취급하는 탱크로서 대통령령이 정하는 탱크(이하 "위험물탱크"라 한다)가 있는 제조소등의 설치 또는 그 위치ㆍ구조 또는 설비의 변경에 관하여 제6조제1항의 규정에 따른 허가를 받은 자가 위험물탱크의 설치 또는 그 위치ㆍ구조 또는 설비의 변경공사를 하는 때에는 제9조제1항의 규정에 따른 완공검사를 받기 전에 제5조제4항의 규정에 따른 기술기준에 적합한지의 여부를 확인하기 위하여 시ㆍ도지사가 실시하는 탱크안전성능검사를 받아야 한다. 이 경우 시ㆍ도지사는 제6조제1항의 규정에 따른 허가를 받은 자가 제16조제1항의 규정에 따른 탱크안전성능시험자 또는 「소방산업의 진흥에 관한 법률」 제14조에 따른 한국소방산업기술원(이하 "기술원"이라 한다)로부터 탱크안전성능시험을 받은 경우에는 대통령령이 정하는 바에 따라 당해 탱크안전성능검사의 전부 또는 일부를 면제할 수 있다. &lt;개정 2008.6.5&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항의 규정에 따른 탱크안전성능검사의 내용은 대통령령으로 정하고, 탱크안전성능검사의 실시 등에 관하여 필요한 사항은 행정안전부령으로 정한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제6조제1항의 규정에 따른 허가를 받은 자가 제조소등의 설치를 마쳤거나 그 위치ㆍ구조 또는 설비의 변경을 마친 때에는 당해 제조소등마다 시ㆍ도지사가 행하는 완공검사를 받아 제5조제4항의 규정에 따른 기술기준에 적합하다고 인정받은 후가 아니면 이를 사용하여서는 아니된다. 다만, 제조소등의 위치ㆍ구조 또는 설비를 변경함에 있어서 제6조제1항 후단의 규정에 따른 변경허가를 신청하는 때에 화재예방에 관한 조치사항을 기재한 서류를 제출하는 경우에는 당해 변경공사와 관계가 없는 부분은 완공검사를 받기 전에 미리 사용할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항 본문의 규정에 따른 완공검사를 받고자 하는 자가 제조소등의 일부에 대한 설치 또는 변경을 마친 후 그 일부를 미리 사용하고자 하는 경우에는 당해 제조소등의 일부에 대하여 완공검사를 받을 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제조소등의 설치자(제6조제1항의 규정에 따라 허가를 받아 제조소등을 설치한 자를 말한다. 이하 같다)가 사망하거나 그 제조소등을 양도ㆍ인도한 때 또는 법인인 제조소등의 설치자의 합병이 있는 때에는 그 상속인, 제조소등을 양수ㆍ인수한 자 또는 합병후 존속하는 법인이나 합병에 의하여 설립되는 법인은 그 설치자의 지위를 승계한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 민사집행법에 의한 경매, 「채무자 회생 및 파산에 관한 법률」에 의한 환가, 국세징수법ㆍ관세법 또는 「지방세징수법」에 따른 압류재산의 매각과 그 밖에 이에 준하는 절차에 따라 제조소등의 시설의 전부를 인수한 자는 그 설치자의 지위를 승계한다. &lt;개정 2005.3.31, 2010.3.31, 2016.12.27&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항 또는 제2항의 규정에 따라 제조소등의 설치자의 지위를 승계한 자는 행정안전부령이 정하는 바에 따라 승계한 날부터 30일 이내에 시ㆍ도지사에게 그 사실을 신고하여야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 시ㆍ도지사는 제12조 각 호의 어느 하나에 해당하는 경우로서 제조소등에 대한 사용의 정지가 그 이용자에게 심한 불편을 주거나 그 밖에 공익을 해칠 우려가 있는 때에는 사용정지처분에 갈음하여 2억원 이하의 과징금을 부과할 수 있다. &lt;개정 2016.1.27&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항의 규정에 따른 과징금을 부과하는 위반행위의 종별ㆍ정도 등에 따른 과징금의 금액 그 밖의 필요한 사항은 행정안전부령으로 정한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 시ㆍ도지사는 제1항의 규정에 따른 과징금을 납부하여야 하는 자가 납부기한까지 이를 납부하지 아니한 때에는 「지방행정제재ㆍ부과금의 징수 등에 관한 법률」에 따라 징수한다. &lt;개정 2013.8.6, 2020.3.24&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제조소등의 관계인은 당해 제조소등의 위치ㆍ구조 및 설비가 제5조제4항의 규정에 따른 기술기준에 적합하도록 유지ㆍ관리하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 시ㆍ도지사, 소방본부장 또는 소방서장은 제1항의 규정에 따른 유지ㆍ관리의 상황이 제5조제4항의 규정에 따른 기술기준에 부적합하다고 인정하는 때에는 그 기술기준에 적합하도록 제조소등의 위치ㆍ구조 및 설비의 수리ㆍ개조 또는 이전을 명할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제조소등[제6조제3항의 규정에 따라 허가를 받지 아니하는 제조소등과 이동탱크저장소(차량에 고정된 탱크에 위험물을 저장 또는 취급하는 저장소를 말한다)를 제외한다. 이하 이 조에서 같다]의 관계인은 위험물의 안전관리에 관한 직무를 수행하게 하기 위하여 제조소등마다 대통령령이 정하는 위험물의 취급에 관한 자격이 있는 자(이하 "위험물취급자격자"라 한다)를 위험물안전관리자(이하 "안전관리자"라 한다)로 선임하여야 한다. 다만, 제조소등에서 저장ㆍ취급하는 위험물이 「화학물질관리법」에 따른 유독물질에 해당하는 경우 등 대통령령이 정하는 경우에는 당해 제조소등을 설치한 자는 다른 법률에 의하여 안전관리업무를 하는 자로 선임된 자 가운데 대통령령이 정하는 자를 안전관리자로 선임할 수 있다. &lt;개정 2013.6.4.&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항의 규정에 따라 안전관리자를 선임한 제조소등의 관계인은 그 안전관리자를 해임하거나 안전관리자가 퇴직한 때에는 해임하거나 퇴직한 날부터 30일 이내에 다시 안전관리자를 선임하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제조소등의 관계인은 제1항 및 제2항에 따라 안전관리자를 선임한 경우에는 선임한 날부터 14일 이내에 행정안전부령으로 정하는 바에 따라 소방본부장 또는 소방서장에게 신고하여야 한다. &lt;개정 2014.12.30, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제조소등의 관계인이 안전관리자를 해임하거나 안전관리자가 퇴직한 경우 그 관계인 또는 안전관리자는 소방본부장이나 소방서장에게 그 사실을 알려 해임되거나 퇴직한 사실을 확인받을 수 있다. &lt;신설 2014.12.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 제1항의 규정에 따라 안전관리자를 선임한 제조소등의 관계인은 안전관리자가 여행ㆍ질병 그 밖의 사유로 인하여 일시적으로 직무를 수행할 수 없거나 안전관리자의 해임 또는 퇴직과 동시에 다른 안전관리자를 선임하지 못하는 경우에는 국가기술자격법에 따른 위험물의 취급에 관한 자격취득자 또는 위험물안전에 관한 기본지식과 경험이 있는 자로서 행정안전부령이 정하는 자를 대리자(代理者)로 지정하여 그 직무를 대행하게 하여야 한다. 이 경우 대리자가 안전관리자의 직무를 대행하는 기간은 30일을 초과할 수 없다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2014.12.30, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 안전관리자는 위험물을 취급하는 작업을 하는 때에는 작업자에게 안전관리에 관한 필요한 지시를 하는 등 행정안전부령이 정하는 바에 따라 위험물의 취급에 관한 안전관리와 감독을 하여야 하고, 제조소등의 관계인과 그 종사자는 안전관리자의 위험물 안전관리에 관한 의견을 존중하고 그 권고에 따라야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2014.12.30, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑦ 제조소등에 있어서 위험물취급자격자가 아닌 자는 안전관리자 또는 제5항에 따른 대리자가 참여한 상태에서 위험물을 취급하여야 한다. &lt;개정 2014.12.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑧ 다수의 제조소등을 동일인이 설치한 경우에는 제1항의 규정에 불구하고 관계인은 대통령령이 정하는 바에 따라 1인의 안전관리자를 중복하여 선임할 수 있다. 이 경우 대통령령이 정하는 제조소등의 관계인은 제5항에 따른 대리자의 자격이 있는 자를 각 제조소등별로 지정하여 안전관리자를 보조하게 하여야 한다. &lt;개정 2014.12.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑨ 제조소등의 종류 및 규모에 따라 선임하여야 하는 안전관리자의 자격은 대통령령으로 정한다. &lt;개정 2014.12.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 시ㆍ도지사 또는 제조소등의 관계인은 안전관리업무를 전문적이고 효율적으로 수행하기 위하여 탱크안전성능시험자(이하 "탱크시험자"라 한다)로 하여금 이 법에 의한 검사 또는 점검의 일부를 실시하게 할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 탱크시험자가 되고자 하는 자는 대통령령이 정하는 기술능력ㆍ시설 및 장비를 갖추어 시ㆍ도지사에게 등록하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제2항의 규정에 따라 등록한 사항 가운데 행정안전부령이 정하는 중요사항을 변경한 경우에는 그 날부터 30일 이내에 시ㆍ도지사에게 변경신고를 하여야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 다음 각 호의 어느 하나에 해당하는 자는 탱크시험자로 등록하거나 탱크시험자의 업무에 종사할 수 없다. &lt;개정 2005.3.31, 2014.12.30, 2016.1.27, 2017.3.21, 2021.1.12&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 시ㆍ도지사는 탱크시험자가 다음 각 호의 어느 하나에 해당하는 경우에는 행정안전부령으로 정하는 바에 따라 그 등록을 취소하거나 6월 이내의 기간을 정하여 업무의 정지를 명할 수 있다. 다만, 제1호 내지 제3호에 해당하는 경우에는 그 등록을 취소하여야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2016.1.27, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 탱크시험자는 이 법 또는 이 법에 의한 명령에 따라 탱크안전성능시험 또는 점검에 관한 업무를 성실히 수행하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 대통령령이 정하는 제조소등의 관계인은 당해 제조소등의 화재예방과 화재 등 재해발생시의 비상조치를 위하여 행정안전부령이 정하는 바에 따라 예방규정을 정하여 당해 제조소등의 사용을 시작하기 전에 시ㆍ도지사에게 제출하여야 한다. 예방규정을 변경한 때에도 또한 같다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 시ㆍ도지사는 제1항의 규정에 따라 제출한 예방규정이 제5조제3항의 규정에 따른 기준에 적합하지 아니하거나 화재예방이나 재해발생시의 비상조치를 위하여 필요하다고 인정하는 때에는 이를 반려하거나 그 변경을 명할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항의 규정에 따른 제조소등의 관계인과 그 종업원은 예방규정을 충분히 잘 익히고 준수하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 대통령령이 정하는 제조소등의 관계인은 그 제조소등에 대하여 행정안전부령이 정하는 바에 따라 제5조제4항의 규정에 따른 기술기준에 적합한지의 여부를 정기적으로 점검하고 점검결과를 기록하여 보존하여야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항의 규정에 따른 정기점검의 대상이 되는 제조소등의 관계인 가운데 대통령령이 정하는 제조소등의 관계인은 행정안전부령이 정하는 바에 따라 소방본부장 또는 소방서장으로부터 당해 제조소등이 제5조제4항의 규정에 따른 기술기준에 적합하게 유지되고 있는지의 여부에 대하여 정기적으로 검사를 받아야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 위험물의 운반은 그 용기ㆍ적재방법 및 운반방법에 관한 다음 각 호의 중요기준과 세부기준에 따라 행하여야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2016.1.27, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따라 운반용기에 수납된 위험물을 지정수량 이상으로 차량에 적재하여 운반하는 차량의 운전자(이하 "위험물운반자"라 한다)는 다음 각 호의 어느 하나에 해당하는 요건을 갖추어야 한다. &lt;신설 2020.6.9&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 시ㆍ도지사는 운반용기를 제작하거나 수입한 자 등의 신청에 따라 제1항의 규정에 따른 운반용기를 검사할 수 있다. 다만, 기계에 의하여 하역하는 구조로 된 대형의 운반용기로서 행정안전부령이 정하는 것을 제작하거나 수입한 자 등은 행정안전부령이 정하는 바에 따라 당해 용기를 사용하거나 유통시키기 전에 시ㆍ도지사가 실시하는 운반용기에 대한 검사를 받아야 한다. &lt;개정 2005.8.4, 2008.2.29, 2013.3.23, 2014.11.19, 2014.12.30, 2017.7.26, 2020.6.9&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 이동탱크저장소에 의하여 위험물을 운송하는 자(운송책임자 및 이동탱크저장소운전자를 말하며, 이하 "위험물운송자"라 한다)는 제20조제2항 각 호의 어느 하나에 해당하는 요건을 갖추어야 한다. &lt;개정 2020.6.9&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 대통령령이 정하는 위험물의 운송에 있어서는 운송책임자(위험물 운송의 감독 또는 지원을 하는 자를 말한다. 이하 같다)의 감독 또는 지원을 받아 이를 운송하여야 한다. 운송책임자의 범위, 감독 또는 지원의 방법 등에 관한 구체적인 기준은 행정안전부령으로 정한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 위험물운송자는 이동탱크저장소에 의하여 위험물을 운송하는 때에는 행정안전부령으로 정하는 기준을 준수하는 등 당해 위험물의 안전확보를 위하여 세심한 주의를 기울여야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2014.12.30, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 소방청장(중앙119구조본부장 및 그 소속 기관의 장을 포함한다. 이하 제22조의2에서 같다), 시ㆍ도지사, 소방본부장 또는 소방서장은 위험물의 저장 또는 취급에 따른 화재의 예방 또는 진압대책을 위하여 필요한 때에는 위험물을 저장 또는 취급하고 있다고 인정되는 장소의 관계인에 대하여 필요한 보고 또는 자료제출을 명할 수 있으며, 관계공무원으로 하여금 당해 장소에 출입하여 그 장소의 위치ㆍ구조ㆍ설비 및 위험물의 저장ㆍ취급상황에 대하여 검사하게 하거나 관계인에게 질문하게 하고 시험에 필요한 최소한의 위험물 또는 위험물로 의심되는 물품을 수거하게 할 수 있다. 다만, 개인의 주거는 관계인의 승낙을 얻은 경우 또는 화재발생의 우려가 커서 긴급한 필요가 있는 경우가 아니면 출입할 수 없다. &lt;개정 2016.1.27, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 소방공무원 또는 경찰공무원은 위험물운반자 또는 위험물운송자의 요건을 확인하기 위하여 필요하다고 인정하는 경우에는 주행 중인 위험물 운반 차량 또는 이동탱크저장소를 정지시켜 해당 위험물운반자 또는 위험물운송자에게 그 자격을 증명할 수 있는 국가기술자격증 또는 교육수료증의 제시를 요구할 수 있으며, 이를 제시하지 아니한 경우에는 주민등록증, 여권, 운전면허증 등 신원확인을 위한 증명서를 제시할 것을 요구하거나 신원확인을 위한 질문을 할 수 있다. 이 직무를 수행하는 경우에 있어서 소방공무원과 경찰공무원은 긴밀히 협력하여야 한다. &lt;개정 2006.2.21, 2014.12.30, 2020.6.9, 2020.12.22&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항의 규정에 따른 출입ㆍ검사 등은 그 장소의 공개시간이나 근무시간내 또는 해가 뜬 후부터 해가 지기 전까지의 시간내에 행하여야 한다. 다만, 건축물 그 밖의 공작물의 관계인의 승낙을 얻은 경우 또는 화재발생의 우려가 커서 긴급한 필요가 있는 경우에는 그러하지 아니하다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제1항 및 제2항의 규정에 의하여 출입ㆍ검사 등을 행하는 관계공무원은 관계인의 정당한 업무를 방해하거나 출입ㆍ검사 등을 수행하면서 알게 된 비밀을 다른 자에게 누설하여서는 아니된다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 시ㆍ도지사, 소방본부장 또는 소방서장은 탱크시험자에게 탱크시험자의 등록 또는 그 업무에 관하여 필요한 보고 또는 자료제출을 명하거나 관계공무원으로 하여금 당해 사무소에 출입하여 업무의 상황ㆍ시험기구ㆍ장부ㆍ서류와 그 밖의 물건을 검사하게 하거나 관계인에게 질문하게 할 수 있다. &lt;개정 2020.6.9&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥ 제1항ㆍ제2항 및 제5항의 규정에 따라 출입ㆍ검사 등을 하는 관계공무원은 그 권한을 표시하는 증표를 지니고 관계인에게 이를 내보여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 소방청장, 소방본부장 또는 소방서장은 위험물의 누출ㆍ화재ㆍ폭발 등의 사고가 발생한 경우 사고의 원인 및 피해 등을 조사하여야 한다. &lt;개정 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항에 따른 조사에 관하여는 제22조제1항ㆍ제3항ㆍ제4항 및 제6항을 준용한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 소방청장, 소방본부장 또는 소방서장은 제1항에 따른 사고 조사에 필요한 경우 자문을 하기 위하여 관련 분야에 전문지식이 있는 사람으로 구성된 사고조사위원회를 둘 수 있다. &lt;개정 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 제3항에 따른 사고조사위원회의 구성과 운영 등에 필요한 사항은 대통령령으로 정한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 시ㆍ도지사, 소방본부장 또는 소방서장은 제조소등에서의 위험물의 저장 또는 취급이 제5조제3항의 규정에 위반된다고 인정하는 때에는 당해 제조소등의 관계인에 대하여 동항의 기준에 따라 위험물을 저장 또는 취급하도록 명할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 시ㆍ도지사, 소방본부장 또는 소방서장은 관할하는 구역에 있는 이동탱크저장소에서의 위험물의 저장 또는 취급이 제5조제3항의 규정에 위반된다고 인정하는 때에는 당해 이동탱크저장소의 관계인에 대하여 동항의 기준에 따라 위험물을 저장 또는 취급하도록 명할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 시ㆍ도지사, 소방본부장 또는 소방서장은 제2항의 규정에 따라 이동탱크저장소의 관계인에 대하여 명령을 한 경우에는 행정안전부령이 정하는 바에 따라 제6조제1항의 규정에 따라 당해 이동탱크저장소의 허가를 한 시ㆍ도지사, 소방본부장 또는 소방서장에게 신속히 그 취지를 통지하여야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제조소등의 관계인은 당해 제조소등에서 위험물의 유출 그 밖의 사고가 발생한 때에는 즉시 그리고 지속적으로 위험물의 유출 및 확산의 방지, 유출된 위험물의 제거 그 밖에 재해의 발생방지를 위한 응급조치를 강구하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항의 사태를 발견한 자는 즉시 그 사실을 소방서, 경찰서 또는 그 밖의 관계기관에 통보하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 소방본부장 또는 소방서장은 제조소등의 관계인이 제1항의 응급조치를 강구하지 아니하였다고 인정하는 때에는 제1항의 응급조치를 강구하도록 명할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 소방본부장 또는 소방서장은 그 관할하는 구역에 있는 이동탱크저장소의 관계인에 대하여 제3항의 규정의 예에 따라 제1항의 응급조치를 강구하도록 명할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 안전관리자ㆍ탱크시험자ㆍ위험물운반자ㆍ위험물운송자 등 위험물의 안전관리와 관련된 업무를 수행하는 자로서 대통령령이 정하는 자는 해당 업무에 관한 능력의 습득 또는 향상을 위하여 소방청장이 실시하는 교육을 받아야 한다. &lt;개정 2005.8.4, 2014.11.19, 2017.7.26, 2020.6.9&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제조소등의 관계인은 제1항의 규정에 따른 교육대상자에 대하여 필요한 안전교육을 받게 하여야 한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 제1항의 규정에 따른 교육의 과정 및 기간과 그 밖에 교육의 실시에 관하여 필요한 사항은 행정안전부령으로 정한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 시ㆍ도지사, 소방본부장 또는 소방서장은 제1항의 규정에 따른 교육대상자가 교육을 받지 아니한 때에는 그 교육대상자가 교육을 받을 때까지 이 법의 규정에 따라 그 자격으로 행하는 행위를 제한할 수 있다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 소방청장 또는 시ㆍ도지사는 이 법에 따른 권한의 일부를 대통령령이 정하는 바에 따라 시ㆍ도지사, 소방본부장 또는 소방서장에게 위임할 수 있다. &lt;개정 2005.8.4, 2014.11.19, 2017.7.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 소방청장, 시ㆍ도지사, 소방본부장 또는 소방서장은 이 법에 따른 업무의 일부를 대통령령이 정하는 바에 따라 소방기본법 제40조의 규정에 의한 한국소방안전원(이하 "안전원"이라 한다) 또는 기술원에 위탁할 수 있다. &lt;개정 2005.8.4, 2008.6.5, 2014.11.19, 2017.7.26, 2017.12.26&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 제조소등에서 위험물을 유출ㆍ방출 또는 확산시켜 사람의 생명ㆍ신체 또는 재산에 대하여 위험을 발생시킨 자는 1년 이상 10년 이하의 징역에 처한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항의 규정에 따른 죄를 범하여 사람을 상해(傷害)에 이르게 한 때에는 무기 또는 3년 이상의 징역에 처하며, 사망에 이르게 한 때에는 무기 또는 5년 이상의 징역에 처한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 업무상 과실로 제조소등에서 위험물을 유출ㆍ방출 또는 확산시켜 사람의 생명ㆍ신체 또는 재산에 대하여 위험을 발생시킨 자는 7년 이하의 금고 또는 7천만원 이하의 벌금에 처한다. &lt;개정 2016.1.27&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항의 죄를 범하여 사람을 사상(死傷)에 이르게 한 자는 10년 이하의 징역 또는 금고나 1억원 이하의 벌금에 처한다. &lt;개정 2016.1.27&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 법인의 대표자나 법인 또는 개인의 대리인, 사용인, 그 밖의 종업원이 그 법인 또는 개인의 업무에 관하여 제33조제1항의 위반행위를 하면 그 행위자를 벌하는 외에 그 법인 또는 개인을 5천만원 이하의 벌금에 처하고, 같은 조 제2항의 위반행위를 하면 그 행위자를 벌하는 외에 그 법인 또는 개인을 1억원 이하의 벌금에 처한다. 다만, 법인 또는 개인이 그 위반행위를 방지하기 위하여 해당 업무에 관하여 상당한 주의와 감독을 게을리하지 아니한 경우에는 그러하지 아니하다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 법인의 대표자나 법인 또는 개인의 대리인, 사용인, 그 밖의 종업원이 그 법인 또는 개인의 업무에 관하여 제34조부터 제37조까지의 어느 하나에 해당하는 위반행위를 하면 그 행위자를 벌하는 외에 그 법인 또는 개인에게도 해당 조문의 벌금형을 과(科)한다. 다만, 법인 또는 개인이 그 위반행위를 방지하기 위하여 해당 업무에 관하여 상당한 주의와 감독을 게을리하지 아니한 경우에는 그러하지 아니하다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ① 다음 각 호의 어느 하나에 해당하는 자는 200만원 이하의 과태료에 처한다. &lt;개정 2014.12.30, 2016.1.27&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ② 제1항의 규정에 따른 과태료는 대통령령이 정하는 바에 따라 시ㆍ도지사, 소방본부장 또는 소방서장(이하 "부과권자"라 한다)이 부과ㆍ징수한다.
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ③ 삭제 &lt;2014.12.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ④ 삭제 &lt;2014.12.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑤ 삭제 &lt;2014.12.30&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑥제4조 및 제5조제2항 각 호 외의 부분 후단의 규정에 따른 조례에는 200만원 이하의 과태료를 정할 수 있다. 이 경우 과태료는 부과권자가 부과ㆍ징수한다. &lt;개정 2016.1.27&gt;
-				</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⑦ 삭제 &lt;2014.12.30&gt;
-				</t>
+    <t>①이 법에서 사용하는 용어의 정의는 다음과 같다.</t>
+  </si>
+  <si>
+    <t>②이 법에서 사용하는 용어의 정의는 제1항에서 규정하는 것을 제외하고는 「소방기본법」, 「화재예방, 소방시설 설치ㆍ유지 및 안전관리에 관한 법률」 및 「소방시설공사업법」에서 정하는 바에 따른다. &lt;개정 2014.12.30, 2017.3.21&gt;</t>
+  </si>
+  <si>
+    <t>① 국가는 위험물에 의한 사고를 예방하기 위하여 다음 각 호의 사항을 포함하는 시책을 수립ㆍ시행하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 국가는 지방자치단체가 위험물에 의한 사고의 예방ㆍ대비 및 대응을 위한 시책을 추진하는 데에 필요한 행정적ㆍ재정적 지원을 하여야 한다.</t>
+  </si>
+  <si>
+    <t>① 지정수량 이상의 위험물을 저장소가 아닌 장소에서 저장하거나 제조소등이 아닌 장소에서 취급하여서는 아니된다.</t>
+  </si>
+  <si>
+    <t>② 제1항의 규정에 불구하고 다음 각 호의 어느 하나에 해당하는 경우에는 제조소등이 아닌 장소에서 지정수량 이상의 위험물을 취급할 수 있다. 이 경우 임시로 저장 또는 취급하는 장소에서의 저장 또는 취급의 기준과 임시로 저장 또는 취급하는 장소의 위치ㆍ구조 및 설비의 기준은 시ㆍ도의 조례로 정한다. &lt;개정 2016.1.27&gt;</t>
+  </si>
+  <si>
+    <t>③ 제조소등에서의 위험물의 저장 또는 취급에 관하여는 다음 각 호의 중요기준 및 세부기준에 따라야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2016.1.27, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>④ 제1항의 규정에 따른 제조소등의 위치ㆍ구조 및 설비의 기술기준은 행정안전부령으로 정한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 둘 이상의 위험물을 같은 장소에서 저장 또는 취급하는 경우에 있어서 당해 장소에서 저장 또는 취급하는 각 위험물의 수량을 그 위험물의 지정수량으로 각각 나누어 얻은 수의 합계가 1 이상인 경우 당해 위험물은 지정수량 이상의 위험물로 본다.</t>
+  </si>
+  <si>
+    <t>① 제조소등을 설치하고자 하는 자는 대통령령이 정하는 바에 따라 그 설치장소를 관할하는 특별시장ㆍ광역시장ㆍ특별자치시장ㆍ도지사 또는 특별자치도지사(이하 "시ㆍ도지사"라 한다)의 허가를 받아야 한다. 제조소등의 위치ㆍ구조 또는 설비 가운데 행정안전부령이 정하는 사항을 변경하고자 하는 때에도 또한 같다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2014.12.30, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>② 제조소등의 위치ㆍ구조 또는 설비의 변경없이 당해 제조소등에서 저장하거나 취급하는 위험물의 품명ㆍ수량 또는 지정수량의 배수를 변경하고자 하는 자는 변경하고자 하는 날의 1일 전까지 행정안전부령이 정하는 바에 따라 시ㆍ도지사에게 신고하여야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2016.1.27, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>③ 제1항 및 제2항의 규정에 불구하고 다음 각 호의 어느 하나에 해당하는 제조소등의 경우에는 허가를 받지 아니하고 당해 제조소등을 설치하거나 그 위치ㆍ구조 또는 설비를 변경할 수 있으며, 신고를 하지 아니하고 위험물의 품명ㆍ수량 또는 지정수량의 배수를 변경할 수 있다. &lt;개정 2016.1.27&gt;</t>
+  </si>
+  <si>
+    <t>① 군사목적 또는 군부대시설을 위한 제조소등을 설치하거나 그 위치ㆍ구조 또는 설비를 변경하고자 하는 군부대의 장은 대통령령이 정하는 바에 따라 미리 제조소등의 소재지를 관할하는 시ㆍ도지사와 협의하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 군부대의 장이 제1항의 규정에 따라 제조소등의 소재지를 관할하는 시ㆍ도지사와 협의한 경우에는 제6조제1항의 규정에 따른 허가를 받은 것으로 본다.</t>
+  </si>
+  <si>
+    <t>③ 군부대의 장은 제1항의 규정에 따라 협의한 제조소등에 대하여는 제8조 및 제9조의 규정에 불구하고 탱크안전성능검사와 완공검사를 자체적으로 실시할 수 있다. 이 경우 완공검사를 자체적으로 실시한 군부대의 장은 지체없이 행정안전부령이 정하는 사항을 시ㆍ도지사에게 통보하여야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>① 위험물을 저장 또는 취급하는 탱크로서 대통령령이 정하는 탱크(이하 "위험물탱크"라 한다)가 있는 제조소등의 설치 또는 그 위치ㆍ구조 또는 설비의 변경에 관하여 제6조제1항의 규정에 따른 허가를 받은 자가 위험물탱크의 설치 또는 그 위치ㆍ구조 또는 설비의 변경공사를 하는 때에는 제9조제1항의 규정에 따른 완공검사를 받기 전에 제5조제4항의 규정에 따른 기술기준에 적합한지의 여부를 확인하기 위하여 시ㆍ도지사가 실시하는 탱크안전성능검사를 받아야 한다. 이 경우 시ㆍ도지사는 제6조제1항의 규정에 따른 허가를 받은 자가 제16조제1항의 규정에 따른 탱크안전성능시험자 또는 「소방산업의 진흥에 관한 법률」 제14조에 따른 한국소방산업기술원(이하 "기술원"이라 한다)로부터 탱크안전성능시험을 받은 경우에는 대통령령이 정하는 바에 따라 당해 탱크안전성능검사의 전부 또는 일부를 면제할 수 있다. &lt;개정 2008.6.5&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항의 규정에 따른 탱크안전성능검사의 내용은 대통령령으로 정하고, 탱크안전성능검사의 실시 등에 관하여 필요한 사항은 행정안전부령으로 정한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>① 제6조제1항의 규정에 따른 허가를 받은 자가 제조소등의 설치를 마쳤거나 그 위치ㆍ구조 또는 설비의 변경을 마친 때에는 당해 제조소등마다 시ㆍ도지사가 행하는 완공검사를 받아 제5조제4항의 규정에 따른 기술기준에 적합하다고 인정받은 후가 아니면 이를 사용하여서는 아니된다. 다만, 제조소등의 위치ㆍ구조 또는 설비를 변경함에 있어서 제6조제1항 후단의 규정에 따른 변경허가를 신청하는 때에 화재예방에 관한 조치사항을 기재한 서류를 제출하는 경우에는 당해 변경공사와 관계가 없는 부분은 완공검사를 받기 전에 미리 사용할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 제1항 본문의 규정에 따른 완공검사를 받고자 하는 자가 제조소등의 일부에 대한 설치 또는 변경을 마친 후 그 일부를 미리 사용하고자 하는 경우에는 당해 제조소등의 일부에 대하여 완공검사를 받을 수 있다.</t>
+  </si>
+  <si>
+    <t>① 제조소등의 설치자(제6조제1항의 규정에 따라 허가를 받아 제조소등을 설치한 자를 말한다. 이하 같다)가 사망하거나 그 제조소등을 양도ㆍ인도한 때 또는 법인인 제조소등의 설치자의 합병이 있는 때에는 그 상속인, 제조소등을 양수ㆍ인수한 자 또는 합병후 존속하는 법인이나 합병에 의하여 설립되는 법인은 그 설치자의 지위를 승계한다.</t>
+  </si>
+  <si>
+    <t>② 민사집행법에 의한 경매, 「채무자 회생 및 파산에 관한 법률」에 의한 환가, 국세징수법ㆍ관세법 또는 「지방세징수법」에 따른 압류재산의 매각과 그 밖에 이에 준하는 절차에 따라 제조소등의 시설의 전부를 인수한 자는 그 설치자의 지위를 승계한다. &lt;개정 2005.3.31, 2010.3.31, 2016.12.27&gt;</t>
+  </si>
+  <si>
+    <t>③ 제1항 또는 제2항의 규정에 따라 제조소등의 설치자의 지위를 승계한 자는 행정안전부령이 정하는 바에 따라 승계한 날부터 30일 이내에 시ㆍ도지사에게 그 사실을 신고하여야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>① 시ㆍ도지사는 제12조 각 호의 어느 하나에 해당하는 경우로서 제조소등에 대한 사용의 정지가 그 이용자에게 심한 불편을 주거나 그 밖에 공익을 해칠 우려가 있는 때에는 사용정지처분에 갈음하여 2억원 이하의 과징금을 부과할 수 있다. &lt;개정 2016.1.27&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항의 규정에 따른 과징금을 부과하는 위반행위의 종별ㆍ정도 등에 따른 과징금의 금액 그 밖의 필요한 사항은 행정안전부령으로 정한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>③ 시ㆍ도지사는 제1항의 규정에 따른 과징금을 납부하여야 하는 자가 납부기한까지 이를 납부하지 아니한 때에는 「지방행정제재ㆍ부과금의 징수 등에 관한 법률」에 따라 징수한다. &lt;개정 2013.8.6, 2020.3.24&gt;</t>
+  </si>
+  <si>
+    <t>① 제조소등의 관계인은 당해 제조소등의 위치ㆍ구조 및 설비가 제5조제4항의 규정에 따른 기술기준에 적합하도록 유지ㆍ관리하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 시ㆍ도지사, 소방본부장 또는 소방서장은 제1항의 규정에 따른 유지ㆍ관리의 상황이 제5조제4항의 규정에 따른 기술기준에 부적합하다고 인정하는 때에는 그 기술기준에 적합하도록 제조소등의 위치ㆍ구조 및 설비의 수리ㆍ개조 또는 이전을 명할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 제조소등[제6조제3항의 규정에 따라 허가를 받지 아니하는 제조소등과 이동탱크저장소(차량에 고정된 탱크에 위험물을 저장 또는 취급하는 저장소를 말한다)를 제외한다. 이하 이 조에서 같다]의 관계인은 위험물의 안전관리에 관한 직무를 수행하게 하기 위하여 제조소등마다 대통령령이 정하는 위험물의 취급에 관한 자격이 있는 자(이하 "위험물취급자격자"라 한다)를 위험물안전관리자(이하 "안전관리자"라 한다)로 선임하여야 한다. 다만, 제조소등에서 저장ㆍ취급하는 위험물이 「화학물질관리법」에 따른 유독물질에 해당하는 경우 등 대통령령이 정하는 경우에는 당해 제조소등을 설치한 자는 다른 법률에 의하여 안전관리업무를 하는 자로 선임된 자 가운데 대통령령이 정하는 자를 안전관리자로 선임할 수 있다. &lt;개정 2013.6.4.&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항의 규정에 따라 안전관리자를 선임한 제조소등의 관계인은 그 안전관리자를 해임하거나 안전관리자가 퇴직한 때에는 해임하거나 퇴직한 날부터 30일 이내에 다시 안전관리자를 선임하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 제조소등의 관계인은 제1항 및 제2항에 따라 안전관리자를 선임한 경우에는 선임한 날부터 14일 이내에 행정안전부령으로 정하는 바에 따라 소방본부장 또는 소방서장에게 신고하여야 한다. &lt;개정 2014.12.30, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>④ 제조소등의 관계인이 안전관리자를 해임하거나 안전관리자가 퇴직한 경우 그 관계인 또는 안전관리자는 소방본부장이나 소방서장에게 그 사실을 알려 해임되거나 퇴직한 사실을 확인받을 수 있다. &lt;신설 2014.12.30&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 제1항의 규정에 따라 안전관리자를 선임한 제조소등의 관계인은 안전관리자가 여행ㆍ질병 그 밖의 사유로 인하여 일시적으로 직무를 수행할 수 없거나 안전관리자의 해임 또는 퇴직과 동시에 다른 안전관리자를 선임하지 못하는 경우에는 국가기술자격법에 따른 위험물의 취급에 관한 자격취득자 또는 위험물안전에 관한 기본지식과 경험이 있는 자로서 행정안전부령이 정하는 자를 대리자(代理者)로 지정하여 그 직무를 대행하게 하여야 한다. 이 경우 대리자가 안전관리자의 직무를 대행하는 기간은 30일을 초과할 수 없다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2014.12.30, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>⑥ 안전관리자는 위험물을 취급하는 작업을 하는 때에는 작업자에게 안전관리에 관한 필요한 지시를 하는 등 행정안전부령이 정하는 바에 따라 위험물의 취급에 관한 안전관리와 감독을 하여야 하고, 제조소등의 관계인과 그 종사자는 안전관리자의 위험물 안전관리에 관한 의견을 존중하고 그 권고에 따라야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2014.12.30, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>⑦ 제조소등에 있어서 위험물취급자격자가 아닌 자는 안전관리자 또는 제5항에 따른 대리자가 참여한 상태에서 위험물을 취급하여야 한다. &lt;개정 2014.12.30&gt;</t>
+  </si>
+  <si>
+    <t>⑧ 다수의 제조소등을 동일인이 설치한 경우에는 제1항의 규정에 불구하고 관계인은 대통령령이 정하는 바에 따라 1인의 안전관리자를 중복하여 선임할 수 있다. 이 경우 대통령령이 정하는 제조소등의 관계인은 제5항에 따른 대리자의 자격이 있는 자를 각 제조소등별로 지정하여 안전관리자를 보조하게 하여야 한다. &lt;개정 2014.12.30&gt;</t>
+  </si>
+  <si>
+    <t>⑨ 제조소등의 종류 및 규모에 따라 선임하여야 하는 안전관리자의 자격은 대통령령으로 정한다. &lt;개정 2014.12.30&gt;</t>
+  </si>
+  <si>
+    <t>① 시ㆍ도지사 또는 제조소등의 관계인은 안전관리업무를 전문적이고 효율적으로 수행하기 위하여 탱크안전성능시험자(이하 "탱크시험자"라 한다)로 하여금 이 법에 의한 검사 또는 점검의 일부를 실시하게 할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 탱크시험자가 되고자 하는 자는 대통령령이 정하는 기술능력ㆍ시설 및 장비를 갖추어 시ㆍ도지사에게 등록하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 제2항의 규정에 따라 등록한 사항 가운데 행정안전부령이 정하는 중요사항을 변경한 경우에는 그 날부터 30일 이내에 시ㆍ도지사에게 변경신고를 하여야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>④ 다음 각 호의 어느 하나에 해당하는 자는 탱크시험자로 등록하거나 탱크시험자의 업무에 종사할 수 없다. &lt;개정 2005.3.31, 2014.12.30, 2016.1.27, 2017.3.21, 2021.1.12&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 시ㆍ도지사는 탱크시험자가 다음 각 호의 어느 하나에 해당하는 경우에는 행정안전부령으로 정하는 바에 따라 그 등록을 취소하거나 6월 이내의 기간을 정하여 업무의 정지를 명할 수 있다. 다만, 제1호 내지 제3호에 해당하는 경우에는 그 등록을 취소하여야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2016.1.27, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>⑥ 탱크시험자는 이 법 또는 이 법에 의한 명령에 따라 탱크안전성능시험 또는 점검에 관한 업무를 성실히 수행하여야 한다.</t>
+  </si>
+  <si>
+    <t>① 대통령령이 정하는 제조소등의 관계인은 당해 제조소등의 화재예방과 화재 등 재해발생시의 비상조치를 위하여 행정안전부령이 정하는 바에 따라 예방규정을 정하여 당해 제조소등의 사용을 시작하기 전에 시ㆍ도지사에게 제출하여야 한다. 예방규정을 변경한 때에도 또한 같다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>② 시ㆍ도지사는 제1항의 규정에 따라 제출한 예방규정이 제5조제3항의 규정에 따른 기준에 적합하지 아니하거나 화재예방이나 재해발생시의 비상조치를 위하여 필요하다고 인정하는 때에는 이를 반려하거나 그 변경을 명할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 제1항의 규정에 따른 제조소등의 관계인과 그 종업원은 예방규정을 충분히 잘 익히고 준수하여야 한다.</t>
+  </si>
+  <si>
+    <t>① 대통령령이 정하는 제조소등의 관계인은 그 제조소등에 대하여 행정안전부령이 정하는 바에 따라 제5조제4항의 규정에 따른 기술기준에 적합한지의 여부를 정기적으로 점검하고 점검결과를 기록하여 보존하여야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항의 규정에 따른 정기점검의 대상이 되는 제조소등의 관계인 가운데 대통령령이 정하는 제조소등의 관계인은 행정안전부령이 정하는 바에 따라 소방본부장 또는 소방서장으로부터 당해 제조소등이 제5조제4항의 규정에 따른 기술기준에 적합하게 유지되고 있는지의 여부에 대하여 정기적으로 검사를 받아야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>① 위험물의 운반은 그 용기ㆍ적재방법 및 운반방법에 관한 다음 각 호의 중요기준과 세부기준에 따라 행하여야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2016.1.27, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항에 따라 운반용기에 수납된 위험물을 지정수량 이상으로 차량에 적재하여 운반하는 차량의 운전자(이하 "위험물운반자"라 한다)는 다음 각 호의 어느 하나에 해당하는 요건을 갖추어야 한다. &lt;신설 2020.6.9&gt;</t>
+  </si>
+  <si>
+    <t>③ 시ㆍ도지사는 운반용기를 제작하거나 수입한 자 등의 신청에 따라 제1항의 규정에 따른 운반용기를 검사할 수 있다. 다만, 기계에 의하여 하역하는 구조로 된 대형의 운반용기로서 행정안전부령이 정하는 것을 제작하거나 수입한 자 등은 행정안전부령이 정하는 바에 따라 당해 용기를 사용하거나 유통시키기 전에 시ㆍ도지사가 실시하는 운반용기에 대한 검사를 받아야 한다. &lt;개정 2005.8.4, 2008.2.29, 2013.3.23, 2014.11.19, 2014.12.30, 2017.7.26, 2020.6.9&gt;</t>
+  </si>
+  <si>
+    <t>① 이동탱크저장소에 의하여 위험물을 운송하는 자(운송책임자 및 이동탱크저장소운전자를 말하며, 이하 "위험물운송자"라 한다)는 제20조제2항 각 호의 어느 하나에 해당하는 요건을 갖추어야 한다. &lt;개정 2020.6.9&gt;</t>
+  </si>
+  <si>
+    <t>② 대통령령이 정하는 위험물의 운송에 있어서는 운송책임자(위험물 운송의 감독 또는 지원을 하는 자를 말한다. 이하 같다)의 감독 또는 지원을 받아 이를 운송하여야 한다. 운송책임자의 범위, 감독 또는 지원의 방법 등에 관한 구체적인 기준은 행정안전부령으로 정한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>③ 위험물운송자는 이동탱크저장소에 의하여 위험물을 운송하는 때에는 행정안전부령으로 정하는 기준을 준수하는 등 당해 위험물의 안전확보를 위하여 세심한 주의를 기울여야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2014.12.30, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>① 소방청장(중앙119구조본부장 및 그 소속 기관의 장을 포함한다. 이하 제22조의2에서 같다), 시ㆍ도지사, 소방본부장 또는 소방서장은 위험물의 저장 또는 취급에 따른 화재의 예방 또는 진압대책을 위하여 필요한 때에는 위험물을 저장 또는 취급하고 있다고 인정되는 장소의 관계인에 대하여 필요한 보고 또는 자료제출을 명할 수 있으며, 관계공무원으로 하여금 당해 장소에 출입하여 그 장소의 위치ㆍ구조ㆍ설비 및 위험물의 저장ㆍ취급상황에 대하여 검사하게 하거나 관계인에게 질문하게 하고 시험에 필요한 최소한의 위험물 또는 위험물로 의심되는 물품을 수거하게 할 수 있다. 다만, 개인의 주거는 관계인의 승낙을 얻은 경우 또는 화재발생의 우려가 커서 긴급한 필요가 있는 경우가 아니면 출입할 수 없다. &lt;개정 2016.1.27, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>② 소방공무원 또는 경찰공무원은 위험물운반자 또는 위험물운송자의 요건을 확인하기 위하여 필요하다고 인정하는 경우에는 주행 중인 위험물 운반 차량 또는 이동탱크저장소를 정지시켜 해당 위험물운반자 또는 위험물운송자에게 그 자격을 증명할 수 있는 국가기술자격증 또는 교육수료증의 제시를 요구할 수 있으며, 이를 제시하지 아니한 경우에는 주민등록증, 여권, 운전면허증 등 신원확인을 위한 증명서를 제시할 것을 요구하거나 신원확인을 위한 질문을 할 수 있다. 이 직무를 수행하는 경우에 있어서 소방공무원과 경찰공무원은 긴밀히 협력하여야 한다. &lt;개정 2006.2.21, 2014.12.30, 2020.6.9, 2020.12.22&gt;</t>
+  </si>
+  <si>
+    <t>③ 제1항의 규정에 따른 출입ㆍ검사 등은 그 장소의 공개시간이나 근무시간내 또는 해가 뜬 후부터 해가 지기 전까지의 시간내에 행하여야 한다. 다만, 건축물 그 밖의 공작물의 관계인의 승낙을 얻은 경우 또는 화재발생의 우려가 커서 긴급한 필요가 있는 경우에는 그러하지 아니하다.</t>
+  </si>
+  <si>
+    <t>④ 제1항 및 제2항의 규정에 의하여 출입ㆍ검사 등을 행하는 관계공무원은 관계인의 정당한 업무를 방해하거나 출입ㆍ검사 등을 수행하면서 알게 된 비밀을 다른 자에게 누설하여서는 아니된다.</t>
+  </si>
+  <si>
+    <t>⑤ 시ㆍ도지사, 소방본부장 또는 소방서장은 탱크시험자에게 탱크시험자의 등록 또는 그 업무에 관하여 필요한 보고 또는 자료제출을 명하거나 관계공무원으로 하여금 당해 사무소에 출입하여 업무의 상황ㆍ시험기구ㆍ장부ㆍ서류와 그 밖의 물건을 검사하게 하거나 관계인에게 질문하게 할 수 있다. &lt;개정 2020.6.9&gt;</t>
+  </si>
+  <si>
+    <t>⑥ 제1항ㆍ제2항 및 제5항의 규정에 따라 출입ㆍ검사 등을 하는 관계공무원은 그 권한을 표시하는 증표를 지니고 관계인에게 이를 내보여야 한다.</t>
+  </si>
+  <si>
+    <t>① 소방청장, 소방본부장 또는 소방서장은 위험물의 누출ㆍ화재ㆍ폭발 등의 사고가 발생한 경우 사고의 원인 및 피해 등을 조사하여야 한다. &lt;개정 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항에 따른 조사에 관하여는 제22조제1항ㆍ제3항ㆍ제4항 및 제6항을 준용한다.</t>
+  </si>
+  <si>
+    <t>③ 소방청장, 소방본부장 또는 소방서장은 제1항에 따른 사고 조사에 필요한 경우 자문을 하기 위하여 관련 분야에 전문지식이 있는 사람으로 구성된 사고조사위원회를 둘 수 있다. &lt;개정 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>④ 제3항에 따른 사고조사위원회의 구성과 운영 등에 필요한 사항은 대통령령으로 정한다.</t>
+  </si>
+  <si>
+    <t>① 시ㆍ도지사, 소방본부장 또는 소방서장은 제조소등에서의 위험물의 저장 또는 취급이 제5조제3항의 규정에 위반된다고 인정하는 때에는 당해 제조소등의 관계인에 대하여 동항의 기준에 따라 위험물을 저장 또는 취급하도록 명할 수 있다.</t>
+  </si>
+  <si>
+    <t>② 시ㆍ도지사, 소방본부장 또는 소방서장은 관할하는 구역에 있는 이동탱크저장소에서의 위험물의 저장 또는 취급이 제5조제3항의 규정에 위반된다고 인정하는 때에는 당해 이동탱크저장소의 관계인에 대하여 동항의 기준에 따라 위험물을 저장 또는 취급하도록 명할 수 있다.</t>
+  </si>
+  <si>
+    <t>③ 시ㆍ도지사, 소방본부장 또는 소방서장은 제2항의 규정에 따라 이동탱크저장소의 관계인에 대하여 명령을 한 경우에는 행정안전부령이 정하는 바에 따라 제6조제1항의 규정에 따라 당해 이동탱크저장소의 허가를 한 시ㆍ도지사, 소방본부장 또는 소방서장에게 신속히 그 취지를 통지하여야 한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>① 제조소등의 관계인은 당해 제조소등에서 위험물의 유출 그 밖의 사고가 발생한 때에는 즉시 그리고 지속적으로 위험물의 유출 및 확산의 방지, 유출된 위험물의 제거 그 밖에 재해의 발생방지를 위한 응급조치를 강구하여야 한다.</t>
+  </si>
+  <si>
+    <t>② 제1항의 사태를 발견한 자는 즉시 그 사실을 소방서, 경찰서 또는 그 밖의 관계기관에 통보하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 소방본부장 또는 소방서장은 제조소등의 관계인이 제1항의 응급조치를 강구하지 아니하였다고 인정하는 때에는 제1항의 응급조치를 강구하도록 명할 수 있다.</t>
+  </si>
+  <si>
+    <t>④ 소방본부장 또는 소방서장은 그 관할하는 구역에 있는 이동탱크저장소의 관계인에 대하여 제3항의 규정의 예에 따라 제1항의 응급조치를 강구하도록 명할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 안전관리자ㆍ탱크시험자ㆍ위험물운반자ㆍ위험물운송자 등 위험물의 안전관리와 관련된 업무를 수행하는 자로서 대통령령이 정하는 자는 해당 업무에 관한 능력의 습득 또는 향상을 위하여 소방청장이 실시하는 교육을 받아야 한다. &lt;개정 2005.8.4, 2014.11.19, 2017.7.26, 2020.6.9&gt;</t>
+  </si>
+  <si>
+    <t>② 제조소등의 관계인은 제1항의 규정에 따른 교육대상자에 대하여 필요한 안전교육을 받게 하여야 한다.</t>
+  </si>
+  <si>
+    <t>③ 제1항의 규정에 따른 교육의 과정 및 기간과 그 밖에 교육의 실시에 관하여 필요한 사항은 행정안전부령으로 정한다. &lt;개정 2008.2.29, 2013.3.23, 2014.11.19, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>④ 시ㆍ도지사, 소방본부장 또는 소방서장은 제1항의 규정에 따른 교육대상자가 교육을 받지 아니한 때에는 그 교육대상자가 교육을 받을 때까지 이 법의 규정에 따라 그 자격으로 행하는 행위를 제한할 수 있다.</t>
+  </si>
+  <si>
+    <t>① 소방청장 또는 시ㆍ도지사는 이 법에 따른 권한의 일부를 대통령령이 정하는 바에 따라 시ㆍ도지사, 소방본부장 또는 소방서장에게 위임할 수 있다. &lt;개정 2005.8.4, 2014.11.19, 2017.7.26&gt;</t>
+  </si>
+  <si>
+    <t>② 소방청장, 시ㆍ도지사, 소방본부장 또는 소방서장은 이 법에 따른 업무의 일부를 대통령령이 정하는 바에 따라 소방기본법 제40조의 규정에 의한 한국소방안전원(이하 "안전원"이라 한다) 또는 기술원에 위탁할 수 있다. &lt;개정 2005.8.4, 2008.6.5, 2014.11.19, 2017.7.26, 2017.12.26&gt;</t>
+  </si>
+  <si>
+    <t>① 제조소등에서 위험물을 유출ㆍ방출 또는 확산시켜 사람의 생명ㆍ신체 또는 재산에 대하여 위험을 발생시킨 자는 1년 이상 10년 이하의 징역에 처한다.</t>
+  </si>
+  <si>
+    <t>② 제1항의 규정에 따른 죄를 범하여 사람을 상해(傷害)에 이르게 한 때에는 무기 또는 3년 이상의 징역에 처하며, 사망에 이르게 한 때에는 무기 또는 5년 이상의 징역에 처한다.</t>
+  </si>
+  <si>
+    <t>① 업무상 과실로 제조소등에서 위험물을 유출ㆍ방출 또는 확산시켜 사람의 생명ㆍ신체 또는 재산에 대하여 위험을 발생시킨 자는 7년 이하의 금고 또는 7천만원 이하의 벌금에 처한다. &lt;개정 2016.1.27&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항의 죄를 범하여 사람을 사상(死傷)에 이르게 한 자는 10년 이하의 징역 또는 금고나 1억원 이하의 벌금에 처한다. &lt;개정 2016.1.27&gt;</t>
+  </si>
+  <si>
+    <t>① 법인의 대표자나 법인 또는 개인의 대리인, 사용인, 그 밖의 종업원이 그 법인 또는 개인의 업무에 관하여 제33조제1항의 위반행위를 하면 그 행위자를 벌하는 외에 그 법인 또는 개인을 5천만원 이하의 벌금에 처하고, 같은 조 제2항의 위반행위를 하면 그 행위자를 벌하는 외에 그 법인 또는 개인을 1억원 이하의 벌금에 처한다. 다만, 법인 또는 개인이 그 위반행위를 방지하기 위하여 해당 업무에 관하여 상당한 주의와 감독을 게을리하지 아니한 경우에는 그러하지 아니하다.</t>
+  </si>
+  <si>
+    <t>② 법인의 대표자나 법인 또는 개인의 대리인, 사용인, 그 밖의 종업원이 그 법인 또는 개인의 업무에 관하여 제34조부터 제37조까지의 어느 하나에 해당하는 위반행위를 하면 그 행위자를 벌하는 외에 그 법인 또는 개인에게도 해당 조문의 벌금형을 과(科)한다. 다만, 법인 또는 개인이 그 위반행위를 방지하기 위하여 해당 업무에 관하여 상당한 주의와 감독을 게을리하지 아니한 경우에는 그러하지 아니하다.</t>
+  </si>
+  <si>
+    <t>① 다음 각 호의 어느 하나에 해당하는 자는 200만원 이하의 과태료에 처한다. &lt;개정 2014.12.30, 2016.1.27&gt;</t>
+  </si>
+  <si>
+    <t>② 제1항의 규정에 따른 과태료는 대통령령이 정하는 바에 따라 시ㆍ도지사, 소방본부장 또는 소방서장(이하 "부과권자"라 한다)이 부과ㆍ징수한다.</t>
+  </si>
+  <si>
+    <t>③ 삭제 &lt;2014.12.30&gt;</t>
+  </si>
+  <si>
+    <t>④ 삭제 &lt;2014.12.30&gt;</t>
+  </si>
+  <si>
+    <t>⑤ 삭제 &lt;2014.12.30&gt;</t>
+  </si>
+  <si>
+    <t>⑥제4조 및 제5조제2항 각 호 외의 부분 후단의 규정에 따른 조례에는 200만원 이하의 과태료를 정할 수 있다. 이 경우 과태료는 부과권자가 부과ㆍ징수한다. &lt;개정 2016.1.27&gt;</t>
+  </si>
+  <si>
+    <t>⑦ 삭제 &lt;2014.12.30&gt;</t>
   </si>
   <si>
     <t>1. "위험물"이라 함은 인화성 또는 발화성 등의 성질을 가지는 것으로서 대통령령이 정하는 물품을 말한다.</t>
